--- a/Performance/PropellerData_Meizlik.xlsx
+++ b/Performance/PropellerData_Meizlik.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\DSE\Performance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DAC41EEF-BFAD-4C85-BE25-5FE90F17192C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611B8422-EC4A-4BAA-BC72-13D1701C910C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" activeTab="4" xr2:uid="{BC3C28DB-4116-44F9-B5F8-93760A33DCEC}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BC3C28DB-4116-44F9-B5F8-93760A33DCEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="40" sheetId="7" r:id="rId1"/>
-    <sheet name="32" sheetId="6" r:id="rId2"/>
-    <sheet name="30" sheetId="5" r:id="rId3"/>
-    <sheet name="28" sheetId="4" r:id="rId4"/>
-    <sheet name="26" sheetId="3" r:id="rId5"/>
-    <sheet name="24" sheetId="2" r:id="rId6"/>
-    <sheet name="22" sheetId="1" r:id="rId7"/>
+    <sheet name="32" sheetId="6" r:id="rId1"/>
+    <sheet name="30" sheetId="5" r:id="rId2"/>
+    <sheet name="28" sheetId="4" r:id="rId3"/>
+    <sheet name="26" sheetId="3" r:id="rId4"/>
+    <sheet name="24" sheetId="2" r:id="rId5"/>
+    <sheet name="22" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="5">
   <si>
     <t>Thrust [N]</t>
   </si>
@@ -403,11 +402,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28282A11-9AF2-4854-8A58-B99EB6FD9F0B}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E78916A-20D6-4E10-95F2-1216471CC2E1}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -440,169 +439,237 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>2.2781E-4</v>
+        <v>2.8719755189999998E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.6698999999999997E-6</v>
       </c>
       <c r="D2">
-        <v>25.233202819999999</v>
+        <v>49.733706179999999</v>
       </c>
       <c r="E2">
-        <v>-3.4593332999999997E-2</v>
+        <v>2.1944759999999999E-3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>7.4779999999999998</v>
+        <v>6.1166666666666663</v>
       </c>
       <c r="B3">
-        <v>4.6448949529355374</v>
+        <v>1.22080792102395</v>
       </c>
       <c r="C3">
-        <v>0.2061051851958578</v>
+        <v>6.0306653000000002E-2</v>
       </c>
       <c r="D3">
-        <v>51.771800000000006</v>
+        <v>49.715435200000002</v>
       </c>
       <c r="E3">
-        <v>0.95299999999999996</v>
+        <v>0.28978294900000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>17.073333333333277</v>
+        <v>12.8</v>
       </c>
       <c r="B4">
-        <v>26.538096127836553</v>
+        <v>5.9314959034890995</v>
       </c>
       <c r="C4">
-        <v>1.3365805673015967</v>
+        <v>0.24969576299999999</v>
       </c>
       <c r="D4">
-        <v>51.586833333333338</v>
+        <v>49.666074760000001</v>
       </c>
       <c r="E4">
-        <v>4.2061666666666673</v>
+        <v>1.004304069</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>24.444000000000003</v>
+        <v>19.483333333333334</v>
       </c>
       <c r="B5">
-        <v>56.839153466496597</v>
+        <v>14.501139053988998</v>
       </c>
       <c r="C5">
-        <v>2.5251302150327142</v>
+        <v>0.57726762799999998</v>
       </c>
       <c r="D5">
-        <v>51.126599999999996</v>
+        <v>49.55713677</v>
       </c>
       <c r="E5">
-        <v>11.056400000000002</v>
+        <v>2.5018068260000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>29.438333333333308</v>
+        <v>26.133333333333333</v>
       </c>
       <c r="B6">
-        <v>83.712440843331279</v>
+        <v>26.665950647769652</v>
       </c>
       <c r="C6">
-        <v>3.6397145268772597</v>
+        <v>1.0434922440000001</v>
       </c>
       <c r="D6">
-        <v>50.547666666666665</v>
+        <v>49.357654699999998</v>
       </c>
       <c r="E6">
-        <v>19.055833333333336</v>
+        <v>5.1364901319999996</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>33.129999999999946</v>
+        <v>31.866666666666667</v>
       </c>
       <c r="B7">
-        <v>103.83958056334818</v>
+        <v>40.353977151965402</v>
       </c>
       <c r="C7">
-        <v>4.4893584886176976</v>
+        <v>1.5644658360000001</v>
       </c>
       <c r="D7">
-        <v>50.184999999999995</v>
+        <v>49.08304115</v>
       </c>
       <c r="E7">
-        <v>26.576666666666664</v>
+        <v>8.4612492019999994</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>37.853333333333339</v>
+        <v>38.233333333333334</v>
       </c>
       <c r="B8">
-        <v>142.79830555969284</v>
+        <v>59.266075630503003</v>
       </c>
       <c r="C8">
-        <v>6.1944101896419284</v>
+        <v>2.30459419</v>
       </c>
       <c r="D8">
-        <v>49.658333333333331</v>
+        <v>48.620459619999998</v>
       </c>
       <c r="E8">
-        <v>41.577000000000005</v>
+        <v>14.33390477</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>43.216666666666633</v>
+        <v>43.733333333333327</v>
       </c>
       <c r="B9">
-        <v>192.74605521627367</v>
+        <v>78.833508418228888</v>
       </c>
       <c r="C9">
-        <v>8.6324301504342937</v>
+        <v>3.0736817279999999</v>
       </c>
       <c r="D9">
-        <v>49.018833333333333</v>
+        <v>48.02345949</v>
       </c>
       <c r="E9">
-        <v>65.391666666666666</v>
+        <v>21.660687920000001</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>46.811666666666618</v>
+        <v>49.449999999999996</v>
       </c>
       <c r="B10">
-        <v>229.88923138145984</v>
+        <v>102.05860314417949</v>
       </c>
       <c r="C10">
-        <v>10.335109108082568</v>
+        <v>4.0079648470000002</v>
       </c>
       <c r="D10">
-        <v>48.530499999999996</v>
+        <v>47.206305870000001</v>
       </c>
       <c r="E10">
-        <v>87.626999999999995</v>
+        <v>32.236866059999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>50.272000000000006</v>
+        <v>54.216666666666669</v>
       </c>
       <c r="B11">
-        <v>262.6040152614766</v>
+        <v>123.41807543931249</v>
       </c>
       <c r="C11">
-        <v>11.817573299702179</v>
+        <v>4.8657691249999999</v>
       </c>
       <c r="D11">
-        <v>48.157200000000003</v>
+        <v>46.296246310000001</v>
       </c>
       <c r="E11">
-        <v>111.28599999999999</v>
+        <v>43.702904840000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>59.333333333333336</v>
+      </c>
+      <c r="B12">
+        <v>151.15782375359399</v>
+      </c>
+      <c r="C12">
+        <v>5.9408460590000001</v>
+      </c>
+      <c r="D12">
+        <v>45.060659800000003</v>
+      </c>
+      <c r="E12">
+        <v>60.75150833</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>62.349999999999994</v>
+      </c>
+      <c r="B13">
+        <v>171.36650930525349</v>
+      </c>
+      <c r="C13">
+        <v>6.8205624120000001</v>
+      </c>
+      <c r="D13">
+        <v>43.482371790000002</v>
+      </c>
+      <c r="E13">
+        <v>76.518459000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>64.033333333333331</v>
+      </c>
+      <c r="B14">
+        <v>180.57928829261999</v>
+      </c>
+      <c r="C14">
+        <v>7.2206992850000002</v>
+      </c>
+      <c r="D14">
+        <v>41.245011329999997</v>
+      </c>
+      <c r="E14">
+        <v>88.075914030000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>69.066666666666663</v>
+      </c>
+      <c r="B15">
+        <v>217.8946427174335</v>
+      </c>
+      <c r="C15">
+        <v>8.7620759079999999</v>
+      </c>
+      <c r="D15">
+        <v>39.202251269999998</v>
+      </c>
+      <c r="E15">
+        <v>123.3551961</v>
       </c>
     </row>
   </sheetData>
@@ -611,288 +678,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E78916A-20D6-4E10-95F2-1216471CC2E1}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>2.8719755189999998E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-5.6698999999999997E-6</v>
-      </c>
-      <c r="D2">
-        <v>49.733706179999999</v>
-      </c>
-      <c r="E2">
-        <v>2.1944759999999999E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>6.1166666666666663</v>
-      </c>
-      <c r="B3">
-        <v>1.22080792102395</v>
-      </c>
-      <c r="C3">
-        <v>6.0306653000000002E-2</v>
-      </c>
-      <c r="D3">
-        <v>49.715435200000002</v>
-      </c>
-      <c r="E3">
-        <v>0.28978294900000001</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>12.8</v>
-      </c>
-      <c r="B4">
-        <v>5.9314959034890995</v>
-      </c>
-      <c r="C4">
-        <v>0.24969576299999999</v>
-      </c>
-      <c r="D4">
-        <v>49.666074760000001</v>
-      </c>
-      <c r="E4">
-        <v>1.004304069</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>19.483333333333334</v>
-      </c>
-      <c r="B5">
-        <v>14.501139053988998</v>
-      </c>
-      <c r="C5">
-        <v>0.57726762799999998</v>
-      </c>
-      <c r="D5">
-        <v>49.55713677</v>
-      </c>
-      <c r="E5">
-        <v>2.5018068260000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>26.133333333333333</v>
-      </c>
-      <c r="B6">
-        <v>26.665950647769652</v>
-      </c>
-      <c r="C6">
-        <v>1.0434922440000001</v>
-      </c>
-      <c r="D6">
-        <v>49.357654699999998</v>
-      </c>
-      <c r="E6">
-        <v>5.1364901319999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>31.866666666666667</v>
-      </c>
-      <c r="B7">
-        <v>40.353977151965402</v>
-      </c>
-      <c r="C7">
-        <v>1.5644658360000001</v>
-      </c>
-      <c r="D7">
-        <v>49.08304115</v>
-      </c>
-      <c r="E7">
-        <v>8.4612492019999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>38.233333333333334</v>
-      </c>
-      <c r="B8">
-        <v>59.266075630503003</v>
-      </c>
-      <c r="C8">
-        <v>2.30459419</v>
-      </c>
-      <c r="D8">
-        <v>48.620459619999998</v>
-      </c>
-      <c r="E8">
-        <v>14.33390477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>43.733333333333334</v>
-      </c>
-      <c r="B9">
-        <v>78.833508418228888</v>
-      </c>
-      <c r="C9">
-        <v>3.0736817279999999</v>
-      </c>
-      <c r="D9">
-        <v>48.02345949</v>
-      </c>
-      <c r="E9">
-        <v>21.660687920000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>49.45</v>
-      </c>
-      <c r="B10">
-        <v>102.05860314417949</v>
-      </c>
-      <c r="C10">
-        <v>4.0079648470000002</v>
-      </c>
-      <c r="D10">
-        <v>47.206305870000001</v>
-      </c>
-      <c r="E10">
-        <v>32.236866059999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>54.216666666666669</v>
-      </c>
-      <c r="B11">
-        <v>123.41807543931249</v>
-      </c>
-      <c r="C11">
-        <v>4.8657691249999999</v>
-      </c>
-      <c r="D11">
-        <v>46.296246310000001</v>
-      </c>
-      <c r="E11">
-        <v>43.702904840000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>59.333333333333336</v>
-      </c>
-      <c r="B12">
-        <v>151.15782375359399</v>
-      </c>
-      <c r="C12">
-        <v>5.9408460590000001</v>
-      </c>
-      <c r="D12">
-        <v>45.060659800000003</v>
-      </c>
-      <c r="E12">
-        <v>60.75150833</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>62.35</v>
-      </c>
-      <c r="B13">
-        <v>171.36650930525349</v>
-      </c>
-      <c r="C13">
-        <v>6.8205624120000001</v>
-      </c>
-      <c r="D13">
-        <v>43.482371790000002</v>
-      </c>
-      <c r="E13">
-        <v>76.518459000000007</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>64.033333333333331</v>
-      </c>
-      <c r="B14">
-        <v>180.57928829261999</v>
-      </c>
-      <c r="C14">
-        <v>7.2206992850000002</v>
-      </c>
-      <c r="D14">
-        <v>41.245011329999997</v>
-      </c>
-      <c r="E14">
-        <v>88.075914030000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>69.066666666666663</v>
-      </c>
-      <c r="B15">
-        <v>217.8946427174335</v>
-      </c>
-      <c r="C15">
-        <v>8.7620759079999999</v>
-      </c>
-      <c r="D15">
-        <v>39.202251269999998</v>
-      </c>
-      <c r="E15">
-        <v>123.3551961</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0C2993-DC8E-47AF-8DA1-9118D488B581}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="C2" sqref="C2:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -939,7 +729,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>13.783333333333333</v>
+        <v>13.783333333333331</v>
       </c>
       <c r="B3">
         <v>5.3556366154442401</v>
@@ -973,7 +763,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>20.583333333333332</v>
+        <v>20.583333333333336</v>
       </c>
       <c r="B5">
         <v>12.665044831943787</v>
@@ -990,7 +780,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>24.116666666666667</v>
+        <v>24.116666666666664</v>
       </c>
       <c r="B6">
         <v>17.598163893323839</v>
@@ -1058,7 +848,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>38.450000000000003</v>
+        <v>38.449999999999996</v>
       </c>
       <c r="B10">
         <v>46.475204715602658</v>
@@ -1092,7 +882,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>44.31666666666667</v>
+        <v>44.316666666666663</v>
       </c>
       <c r="B12">
         <v>63.166335259847521</v>
@@ -1143,7 +933,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>54.033333333333331</v>
+        <v>54.033333333333324</v>
       </c>
       <c r="B15">
         <v>97.472677542907022</v>
@@ -1177,7 +967,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>60.95</v>
+        <v>60.949999999999996</v>
       </c>
       <c r="B17">
         <v>125.99545299117347</v>
@@ -1350,12 +1140,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06B0D17-BBDD-4475-90D6-067CF0599EDF}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="C2" sqref="B2:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1388,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>-2.8766042577999997E-3</v>
+        <v>2.8766042578000002E-3</v>
       </c>
       <c r="C2">
         <v>2.2781E-4</v>
@@ -1402,7 +1192,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>8.65</v>
+        <v>8.6499999999999986</v>
       </c>
       <c r="B3">
         <v>1.4369524102405498</v>
@@ -1419,7 +1209,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>13.116666666666667</v>
+        <v>13.116666666666665</v>
       </c>
       <c r="B4">
         <v>3.5583792076850496</v>
@@ -1436,7 +1226,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>15.333333333333334</v>
+        <v>15.333333333333332</v>
       </c>
       <c r="B5">
         <v>5.1215207677135073</v>
@@ -1470,7 +1260,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>19.533333333333335</v>
+        <v>19.533333333333331</v>
       </c>
       <c r="B7">
         <v>8.4225657400485989</v>
@@ -1538,7 +1328,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>28.233333333333334</v>
+        <v>28.233333333333331</v>
       </c>
       <c r="B11">
         <v>18.52153119625725</v>
@@ -1589,7 +1379,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>32.31666666666667</v>
+        <v>32.316666666666663</v>
       </c>
       <c r="B14">
         <v>24.321672308780702</v>
@@ -1606,7 +1396,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>34.6</v>
+        <v>34.599999999999994</v>
       </c>
       <c r="B15">
         <v>27.56444262851825</v>
@@ -1623,7 +1413,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>37.1</v>
+        <v>37.099999999999994</v>
       </c>
       <c r="B16">
         <v>31.971735189725447</v>
@@ -1691,7 +1481,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20">
-        <v>44.45</v>
+        <v>44.449999999999996</v>
       </c>
       <c r="B20">
         <v>45.076406812995245</v>
@@ -1793,7 +1583,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>70.933333333333337</v>
+        <v>70.933333333333323</v>
       </c>
       <c r="B26">
         <v>123.65150918000673</v>
@@ -1878,7 +1668,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A31">
-        <v>90.38333333333334</v>
+        <v>90.383333333333326</v>
       </c>
       <c r="B31">
         <v>210.90314894633826</v>
@@ -1908,6 +1698,641 @@
       </c>
       <c r="E32">
         <v>140.28938123939301</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA273B8-75A2-4F3B-9BE6-4C1B5C58BD39}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-3.5116436851999997E-3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-6.1148200000000005E-5</v>
+      </c>
+      <c r="D2">
+        <v>24.93841042</v>
+      </c>
+      <c r="E2">
+        <v>9.8054918000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>9.5833333333333339</v>
+      </c>
+      <c r="B3">
+        <v>1.29398245630185</v>
+      </c>
+      <c r="C3">
+        <v>4.9819279000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>24.955109140000001</v>
+      </c>
+      <c r="E3">
+        <v>0.383479022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>14.6</v>
+      </c>
+      <c r="B4">
+        <v>3.2711319654894999</v>
+      </c>
+      <c r="C4">
+        <v>0.114816723</v>
+      </c>
+      <c r="D4">
+        <v>24.957695739999998</v>
+      </c>
+      <c r="E4">
+        <v>0.82927304999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="B5">
+        <v>4.3239998222392275</v>
+      </c>
+      <c r="C5">
+        <v>0.14855960921365699</v>
+      </c>
+      <c r="D5">
+        <v>50.1749613447911</v>
+      </c>
+      <c r="E5">
+        <v>1.18299145290347</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>18.466666666666665</v>
+      </c>
+      <c r="B6">
+        <v>5.3716197607604004</v>
+      </c>
+      <c r="C6">
+        <v>0.18231914499999999</v>
+      </c>
+      <c r="D6">
+        <v>24.945192649999999</v>
+      </c>
+      <c r="E6">
+        <v>1.4130098520000001</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>21.633333333333333</v>
+      </c>
+      <c r="B7">
+        <v>7.5842224548089998</v>
+      </c>
+      <c r="C7">
+        <v>0.25198342000000001</v>
+      </c>
+      <c r="D7">
+        <v>24.919675869999999</v>
+      </c>
+      <c r="E7">
+        <v>2.1037290450000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>24.35</v>
+      </c>
+      <c r="B8">
+        <v>9.8495769432445002</v>
+      </c>
+      <c r="C8">
+        <v>0.32466879300000001</v>
+      </c>
+      <c r="D8">
+        <v>24.882061100000001</v>
+      </c>
+      <c r="E8">
+        <v>2.8906790949999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>24.466666666666665</v>
+      </c>
+      <c r="B9">
+        <v>9.9544789338343218</v>
+      </c>
+      <c r="C9">
+        <v>0.32664772816988102</v>
+      </c>
+      <c r="D9">
+        <v>50.092288890120997</v>
+      </c>
+      <c r="E9">
+        <v>2.3709633730550501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>26.85</v>
+      </c>
+      <c r="B10">
+        <v>12.033282165991798</v>
+      </c>
+      <c r="C10">
+        <v>0.39255326899999998</v>
+      </c>
+      <c r="D10">
+        <v>24.83600753</v>
+      </c>
+      <c r="E10">
+        <v>3.7336624939999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>28.999999999999996</v>
+      </c>
+      <c r="B11">
+        <v>14.119962109802849</v>
+      </c>
+      <c r="C11">
+        <v>0.458465487</v>
+      </c>
+      <c r="D11">
+        <v>24.78355389</v>
+      </c>
+      <c r="E11">
+        <v>4.6092061470000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>31.016666666666662</v>
+      </c>
+      <c r="B12">
+        <v>16.109156617239698</v>
+      </c>
+      <c r="C12">
+        <v>0.51774709600000002</v>
+      </c>
+      <c r="D12">
+        <v>24.72780685</v>
+      </c>
+      <c r="E12">
+        <v>5.511302444</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>32.833333333333336</v>
+      </c>
+      <c r="B13">
+        <v>18.1228264734867</v>
+      </c>
+      <c r="C13">
+        <v>0.58334134999999998</v>
+      </c>
+      <c r="D13">
+        <v>24.669660100000002</v>
+      </c>
+      <c r="E13">
+        <v>6.4617056909999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>34.533333333333331</v>
+      </c>
+      <c r="B14">
+        <v>20.044047794739146</v>
+      </c>
+      <c r="C14">
+        <v>0.64389872500000001</v>
+      </c>
+      <c r="D14">
+        <v>24.611160399999999</v>
+      </c>
+      <c r="E14">
+        <v>7.3989755739999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>36.516666666666666</v>
+      </c>
+      <c r="B15">
+        <v>22.8546476199888</v>
+      </c>
+      <c r="C15">
+        <v>0.73216027400000006</v>
+      </c>
+      <c r="D15">
+        <v>24.537646840000001</v>
+      </c>
+      <c r="E15">
+        <v>8.767262788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>24.847121785243321</v>
+      </c>
+      <c r="C16">
+        <v>0.78698194293528401</v>
+      </c>
+      <c r="D16">
+        <v>49.8378810284634</v>
+      </c>
+      <c r="E16">
+        <v>6.0824486418327304</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>38.85</v>
+      </c>
+      <c r="B17">
+        <v>25.740227561301047</v>
+      </c>
+      <c r="C17">
+        <v>0.82494168800000001</v>
+      </c>
+      <c r="D17">
+        <v>24.455759759999999</v>
+      </c>
+      <c r="E17">
+        <v>10.35107786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>41.583333333333329</v>
+      </c>
+      <c r="B18">
+        <v>29.5765706146057</v>
+      </c>
+      <c r="C18">
+        <v>0.94209142700000004</v>
+      </c>
+      <c r="D18">
+        <v>24.351742829999999</v>
+      </c>
+      <c r="E18">
+        <v>12.52879482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>44.133333333333333</v>
+      </c>
+      <c r="B19">
+        <v>33.766597041195901</v>
+      </c>
+      <c r="C19">
+        <v>1.075792659</v>
+      </c>
+      <c r="D19">
+        <v>24.234717069999999</v>
+      </c>
+      <c r="E19">
+        <v>15.12914507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>46.266666666666666</v>
+      </c>
+      <c r="B20">
+        <v>36.403565440314999</v>
+      </c>
+      <c r="C20">
+        <v>1.1552209583078901</v>
+      </c>
+      <c r="D20">
+        <v>49.533923169695299</v>
+      </c>
+      <c r="E20">
+        <v>9.7913579894069507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>46.6</v>
+      </c>
+      <c r="B21">
+        <v>37.047954989039397</v>
+      </c>
+      <c r="C21">
+        <v>1.1781143140000001</v>
+      </c>
+      <c r="D21">
+        <v>24.12395179</v>
+      </c>
+      <c r="E21">
+        <v>17.594029939999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>48.816666666666663</v>
+      </c>
+      <c r="B22">
+        <v>41.052447864635546</v>
+      </c>
+      <c r="C22">
+        <v>1.315162414</v>
+      </c>
+      <c r="D22">
+        <v>24.004832109999999</v>
+      </c>
+      <c r="E22">
+        <v>20.467339750000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>50.983333333333327</v>
+      </c>
+      <c r="B23">
+        <v>45.216721155533897</v>
+      </c>
+      <c r="C23">
+        <v>1.438145443</v>
+      </c>
+      <c r="D23">
+        <v>23.884386540000001</v>
+      </c>
+      <c r="E23">
+        <v>23.48274451</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>52.233333333333334</v>
+      </c>
+      <c r="B24">
+        <v>47.272528490280443</v>
+      </c>
+      <c r="C24">
+        <v>1.5089480049999999</v>
+      </c>
+      <c r="D24">
+        <v>23.806849580000002</v>
+      </c>
+      <c r="E24">
+        <v>25.245431180000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>52.266666666666666</v>
+      </c>
+      <c r="B25">
+        <v>46.968330806599297</v>
+      </c>
+      <c r="C25">
+        <v>1.4999598730000001</v>
+      </c>
+      <c r="D25">
+        <v>23.809398550000001</v>
+      </c>
+      <c r="E25">
+        <v>25.121762669999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>52.300000000000004</v>
+      </c>
+      <c r="B26">
+        <v>47.344383795773744</v>
+      </c>
+      <c r="C26">
+        <v>1.5027731769999999</v>
+      </c>
+      <c r="D26">
+        <v>23.814150919999999</v>
+      </c>
+      <c r="E26">
+        <v>25.173430759999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>54.133333333333333</v>
+      </c>
+      <c r="B27">
+        <v>51.023922210817275</v>
+      </c>
+      <c r="C27">
+        <v>1.60473683846946</v>
+      </c>
+      <c r="D27">
+        <v>49.132860252823498</v>
+      </c>
+      <c r="E27">
+        <v>14.9436965268952</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>60.966666666666661</v>
+      </c>
+      <c r="B28">
+        <v>65.754633669333458</v>
+      </c>
+      <c r="C28">
+        <v>2.0621644688978198</v>
+      </c>
+      <c r="D28">
+        <v>48.681814482794103</v>
+      </c>
+      <c r="E28">
+        <v>20.977236081675802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>67.833333333333329</v>
+      </c>
+      <c r="B29">
+        <v>82.916752208457453</v>
+      </c>
+      <c r="C29">
+        <v>2.60310321780719</v>
+      </c>
+      <c r="D29">
+        <v>48.161483435469698</v>
+      </c>
+      <c r="E29">
+        <v>28.867853119617902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>74.333333333333329</v>
+      </c>
+      <c r="B30">
+        <v>98.971667409116179</v>
+      </c>
+      <c r="C30">
+        <v>3.1411252037382398</v>
+      </c>
+      <c r="D30">
+        <v>47.631306332097701</v>
+      </c>
+      <c r="E30">
+        <v>37.9638529299053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>80.433333333333337</v>
+      </c>
+      <c r="B31">
+        <v>118.86879149103187</v>
+      </c>
+      <c r="C31">
+        <v>3.76812998653245</v>
+      </c>
+      <c r="D31">
+        <v>47.047453468160803</v>
+      </c>
+      <c r="E31">
+        <v>49.227453095825297</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>85.533333333333331</v>
+      </c>
+      <c r="B32">
+        <v>134.8338672176717</v>
+      </c>
+      <c r="C32">
+        <v>4.3207005508148502</v>
+      </c>
+      <c r="D32">
+        <v>46.579130596109501</v>
+      </c>
+      <c r="E32">
+        <v>60.187286706018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>91.066666666666663</v>
+      </c>
+      <c r="B33">
+        <v>155.77173162679344</v>
+      </c>
+      <c r="C33">
+        <v>5.0097166086929699</v>
+      </c>
+      <c r="D33">
+        <v>45.977247660805602</v>
+      </c>
+      <c r="E33">
+        <v>74.907685021290703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>95.649999999999991</v>
+      </c>
+      <c r="B34">
+        <v>174.0223381819055</v>
+      </c>
+      <c r="C34">
+        <v>5.6456465177436099</v>
+      </c>
+      <c r="D34">
+        <v>45.381066163095198</v>
+      </c>
+      <c r="E34">
+        <v>89.744132227318502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>97.033333333333331</v>
+      </c>
+      <c r="B35">
+        <v>179.112270852536</v>
+      </c>
+      <c r="C35">
+        <v>5.8204688696815001</v>
+      </c>
+      <c r="D35">
+        <v>45.177034542286798</v>
+      </c>
+      <c r="E35">
+        <v>94.414948796022401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>101.55</v>
+      </c>
+      <c r="B36">
+        <v>198.50626974649501</v>
+      </c>
+      <c r="C36">
+        <v>6.4811463538094696</v>
+      </c>
+      <c r="D36">
+        <v>44.5764355822431</v>
+      </c>
+      <c r="E36">
+        <v>111.74548960302801</v>
       </c>
     </row>
   </sheetData>
@@ -1916,645 +2341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA273B8-75A2-4F3B-9BE6-4C1B5C58BD39}">
-  <dimension ref="A1:J36"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.73046875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-3.5116436851999997E-3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-6.1148200000000005E-5</v>
-      </c>
-      <c r="D2">
-        <v>24.93841042</v>
-      </c>
-      <c r="E2">
-        <v>9.8054918000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>9.5833333333333339</v>
-      </c>
-      <c r="B3">
-        <v>1.29398245630185</v>
-      </c>
-      <c r="C3">
-        <v>4.9819279000000001E-2</v>
-      </c>
-      <c r="D3">
-        <v>24.955109140000001</v>
-      </c>
-      <c r="E3">
-        <v>0.383479022</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>14.6</v>
-      </c>
-      <c r="B4">
-        <v>3.2711319654894999</v>
-      </c>
-      <c r="C4">
-        <v>0.114816723</v>
-      </c>
-      <c r="D4">
-        <v>24.957695739999998</v>
-      </c>
-      <c r="E4">
-        <v>0.82927304999999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>16.649999999999999</v>
-      </c>
-      <c r="B5">
-        <v>4.3239998222392275</v>
-      </c>
-      <c r="C5">
-        <v>0.14855960921365699</v>
-      </c>
-      <c r="D5">
-        <v>50.1749613447911</v>
-      </c>
-      <c r="E5">
-        <v>1.18299145290347</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>18.466666666666665</v>
-      </c>
-      <c r="B6">
-        <v>5.3716197607604004</v>
-      </c>
-      <c r="C6">
-        <v>0.18231914499999999</v>
-      </c>
-      <c r="D6">
-        <v>24.945192649999999</v>
-      </c>
-      <c r="E6">
-        <v>1.4130098520000001</v>
-      </c>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>21.633333333333333</v>
-      </c>
-      <c r="B7">
-        <v>7.5842224548089998</v>
-      </c>
-      <c r="C7">
-        <v>0.25198342000000001</v>
-      </c>
-      <c r="D7">
-        <v>24.919675869999999</v>
-      </c>
-      <c r="E7">
-        <v>2.1037290450000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>24.35</v>
-      </c>
-      <c r="B8">
-        <v>9.8495769432445002</v>
-      </c>
-      <c r="C8">
-        <v>0.32466879300000001</v>
-      </c>
-      <c r="D8">
-        <v>24.882061100000001</v>
-      </c>
-      <c r="E8">
-        <v>2.8906790949999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>24.466666666666665</v>
-      </c>
-      <c r="B9">
-        <v>9.9544789338343218</v>
-      </c>
-      <c r="C9">
-        <v>0.32664772816988102</v>
-      </c>
-      <c r="D9">
-        <v>50.092288890120997</v>
-      </c>
-      <c r="E9">
-        <v>2.3709633730550501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>26.85</v>
-      </c>
-      <c r="B10">
-        <v>12.033282165991798</v>
-      </c>
-      <c r="C10">
-        <v>0.39255326899999998</v>
-      </c>
-      <c r="D10">
-        <v>24.83600753</v>
-      </c>
-      <c r="E10">
-        <v>3.7336624939999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>29</v>
-      </c>
-      <c r="B11">
-        <v>14.119962109802849</v>
-      </c>
-      <c r="C11">
-        <v>0.458465487</v>
-      </c>
-      <c r="D11">
-        <v>24.78355389</v>
-      </c>
-      <c r="E11">
-        <v>4.6092061470000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>31.016666666666666</v>
-      </c>
-      <c r="B12">
-        <v>16.109156617239698</v>
-      </c>
-      <c r="C12">
-        <v>0.51774709600000002</v>
-      </c>
-      <c r="D12">
-        <v>24.72780685</v>
-      </c>
-      <c r="E12">
-        <v>5.511302444</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>32.833333333333336</v>
-      </c>
-      <c r="B13">
-        <v>18.1228264734867</v>
-      </c>
-      <c r="C13">
-        <v>0.58334134999999998</v>
-      </c>
-      <c r="D13">
-        <v>24.669660100000002</v>
-      </c>
-      <c r="E13">
-        <v>6.4617056909999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>34.533333333333331</v>
-      </c>
-      <c r="B14">
-        <v>20.044047794739146</v>
-      </c>
-      <c r="C14">
-        <v>0.64389872500000001</v>
-      </c>
-      <c r="D14">
-        <v>24.611160399999999</v>
-      </c>
-      <c r="E14">
-        <v>7.3989755739999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>36.516666666666666</v>
-      </c>
-      <c r="B15">
-        <v>22.8546476199888</v>
-      </c>
-      <c r="C15">
-        <v>0.73216027400000006</v>
-      </c>
-      <c r="D15">
-        <v>24.537646840000001</v>
-      </c>
-      <c r="E15">
-        <v>8.767262788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>24.847121785243321</v>
-      </c>
-      <c r="C16">
-        <v>0.78698194293528401</v>
-      </c>
-      <c r="D16">
-        <v>49.8378810284634</v>
-      </c>
-      <c r="E16">
-        <v>6.0824486418327304</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>38.85</v>
-      </c>
-      <c r="B17">
-        <v>25.740227561301047</v>
-      </c>
-      <c r="C17">
-        <v>0.82494168800000001</v>
-      </c>
-      <c r="D17">
-        <v>24.455759759999999</v>
-      </c>
-      <c r="E17">
-        <v>10.35107786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>41.583333333333336</v>
-      </c>
-      <c r="B18">
-        <v>29.5765706146057</v>
-      </c>
-      <c r="C18">
-        <v>0.94209142700000004</v>
-      </c>
-      <c r="D18">
-        <v>24.351742829999999</v>
-      </c>
-      <c r="E18">
-        <v>12.52879482</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>44.133333333333333</v>
-      </c>
-      <c r="B19">
-        <v>33.766597041195901</v>
-      </c>
-      <c r="C19">
-        <v>1.075792659</v>
-      </c>
-      <c r="D19">
-        <v>24.234717069999999</v>
-      </c>
-      <c r="E19">
-        <v>15.12914507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>46.266666666666666</v>
-      </c>
-      <c r="B20">
-        <v>36.403565440314999</v>
-      </c>
-      <c r="C20">
-        <v>1.1552209583078901</v>
-      </c>
-      <c r="D20">
-        <v>49.533923169695299</v>
-      </c>
-      <c r="E20">
-        <v>9.7913579894069507</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>46.6</v>
-      </c>
-      <c r="B21">
-        <v>37.047954989039397</v>
-      </c>
-      <c r="C21">
-        <v>1.1781143140000001</v>
-      </c>
-      <c r="D21">
-        <v>24.12395179</v>
-      </c>
-      <c r="E21">
-        <v>17.594029939999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>48.81666666666667</v>
-      </c>
-      <c r="B22">
-        <v>41.052447864635546</v>
-      </c>
-      <c r="C22">
-        <v>1.315162414</v>
-      </c>
-      <c r="D22">
-        <v>24.004832109999999</v>
-      </c>
-      <c r="E22">
-        <v>20.467339750000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>50.983333333333334</v>
-      </c>
-      <c r="B23">
-        <v>45.216721155533897</v>
-      </c>
-      <c r="C23">
-        <v>1.438145443</v>
-      </c>
-      <c r="D23">
-        <v>23.884386540000001</v>
-      </c>
-      <c r="E23">
-        <v>23.48274451</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>52.233333333333334</v>
-      </c>
-      <c r="B24">
-        <v>47.272528490280443</v>
-      </c>
-      <c r="C24">
-        <v>1.5089480049999999</v>
-      </c>
-      <c r="D24">
-        <v>23.806849580000002</v>
-      </c>
-      <c r="E24">
-        <v>25.245431180000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>52.266666666666666</v>
-      </c>
-      <c r="B25">
-        <v>46.968330806599297</v>
-      </c>
-      <c r="C25">
-        <v>1.4999598730000001</v>
-      </c>
-      <c r="D25">
-        <v>23.809398550000001</v>
-      </c>
-      <c r="E25">
-        <v>25.121762669999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>52.3</v>
-      </c>
-      <c r="B26">
-        <v>47.344383795773744</v>
-      </c>
-      <c r="C26">
-        <v>1.5027731769999999</v>
-      </c>
-      <c r="D26">
-        <v>23.814150919999999</v>
-      </c>
-      <c r="E26">
-        <v>25.173430759999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>54.133333333333333</v>
-      </c>
-      <c r="B27">
-        <v>51.023922210817275</v>
-      </c>
-      <c r="C27">
-        <v>1.60473683846946</v>
-      </c>
-      <c r="D27">
-        <v>49.132860252823498</v>
-      </c>
-      <c r="E27">
-        <v>14.9436965268952</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>60.966666666666669</v>
-      </c>
-      <c r="B28">
-        <v>65.754633669333458</v>
-      </c>
-      <c r="C28">
-        <v>2.0621644688978198</v>
-      </c>
-      <c r="D28">
-        <v>48.681814482794103</v>
-      </c>
-      <c r="E28">
-        <v>20.977236081675802</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>67.833333333333329</v>
-      </c>
-      <c r="B29">
-        <v>82.916752208457453</v>
-      </c>
-      <c r="C29">
-        <v>2.60310321780719</v>
-      </c>
-      <c r="D29">
-        <v>48.161483435469698</v>
-      </c>
-      <c r="E29">
-        <v>28.867853119617902</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>74.333333333333329</v>
-      </c>
-      <c r="B30">
-        <v>98.971667409116179</v>
-      </c>
-      <c r="C30">
-        <v>3.1411252037382398</v>
-      </c>
-      <c r="D30">
-        <v>47.631306332097701</v>
-      </c>
-      <c r="E30">
-        <v>37.9638529299053</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>80.433333333333337</v>
-      </c>
-      <c r="B31">
-        <v>118.86879149103187</v>
-      </c>
-      <c r="C31">
-        <v>3.76812998653245</v>
-      </c>
-      <c r="D31">
-        <v>47.047453468160803</v>
-      </c>
-      <c r="E31">
-        <v>49.227453095825297</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>85.533333333333331</v>
-      </c>
-      <c r="B32">
-        <v>134.8338672176717</v>
-      </c>
-      <c r="C32">
-        <v>4.3207005508148502</v>
-      </c>
-      <c r="D32">
-        <v>46.579130596109501</v>
-      </c>
-      <c r="E32">
-        <v>60.187286706018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>91.066666666666663</v>
-      </c>
-      <c r="B33">
-        <v>155.77173162679344</v>
-      </c>
-      <c r="C33">
-        <v>5.0097166086929699</v>
-      </c>
-      <c r="D33">
-        <v>45.977247660805602</v>
-      </c>
-      <c r="E33">
-        <v>74.907685021290703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>95.65</v>
-      </c>
-      <c r="B34">
-        <v>174.0223381819055</v>
-      </c>
-      <c r="C34">
-        <v>5.6456465177436099</v>
-      </c>
-      <c r="D34">
-        <v>45.381066163095198</v>
-      </c>
-      <c r="E34">
-        <v>89.744132227318502</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>97.033333333333331</v>
-      </c>
-      <c r="B35">
-        <v>179.112270852536</v>
-      </c>
-      <c r="C35">
-        <v>5.8204688696815001</v>
-      </c>
-      <c r="D35">
-        <v>45.177034542286798</v>
-      </c>
-      <c r="E35">
-        <v>94.414948796022401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>101.55</v>
-      </c>
-      <c r="B36">
-        <v>198.50626974649501</v>
-      </c>
-      <c r="C36">
-        <v>6.4811463538094696</v>
-      </c>
-      <c r="D36">
-        <v>44.5764355822431</v>
-      </c>
-      <c r="E36">
-        <v>111.74548960302801</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F685AA6D-F53D-4107-8A1B-26CC561F965F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2618,7 +2409,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>26.55</v>
+        <v>26.549999999999997</v>
       </c>
       <c r="B4">
         <v>8.5147254987865573</v>
@@ -2652,7 +2443,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>41.333333333333336</v>
+        <v>41.333333333333329</v>
       </c>
       <c r="B6">
         <v>21.670267751665531</v>
@@ -2686,7 +2477,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>57.55</v>
+        <v>57.550000000000004</v>
       </c>
       <c r="B8">
         <v>42.855476939703415</v>
@@ -2703,7 +2494,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>65.95</v>
+        <v>65.949999999999989</v>
       </c>
       <c r="B9">
         <v>55.623846433683816</v>
@@ -2720,7 +2511,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>72.933333333333337</v>
+        <v>72.933333333333323</v>
       </c>
       <c r="B10">
         <v>68.931498449118251</v>
@@ -2771,7 +2562,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>95.033333333333331</v>
+        <v>95.033333333333317</v>
       </c>
       <c r="B13">
         <v>123.0625913460613</v>
@@ -2822,7 +2613,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>103.5</v>
+        <v>103.49999999999999</v>
       </c>
       <c r="B16">
         <v>148.46719750512287</v>
@@ -2856,7 +2647,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>108.11666666666666</v>
+        <v>108.11666666666667</v>
       </c>
       <c r="B18">
         <v>163.51454740258606</v>
@@ -2958,7 +2749,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>119.51666666666667</v>
+        <v>119.51666666666665</v>
       </c>
       <c r="B24">
         <v>204.34140251381112</v>
@@ -2975,7 +2766,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25">
-        <v>120.88333333333334</v>
+        <v>120.88333333333333</v>
       </c>
       <c r="B25">
         <v>213.65573307181469</v>
@@ -2992,7 +2783,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A26">
-        <v>122.65</v>
+        <v>122.64999999999999</v>
       </c>
       <c r="B26">
         <v>217.83213150378137</v>
@@ -3012,12 +2803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A43774A4-6643-4051-AB5D-F6C8491AC311}">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G1:G36"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3064,7 +2855,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>11.766666666666667</v>
+        <v>11.766666666666666</v>
       </c>
       <c r="B3">
         <v>0.95456884339797188</v>
@@ -3166,7 +2957,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>30.15</v>
+        <v>30.150000000000002</v>
       </c>
       <c r="B9">
         <v>7.6164319493887929</v>
@@ -3268,7 +3059,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>41.5</v>
+        <v>41.499999999999993</v>
       </c>
       <c r="B15">
         <v>14.748130049956375</v>
@@ -3319,7 +3110,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>44.766666666666666</v>
+        <v>44.766666666666659</v>
       </c>
       <c r="B18">
         <v>17.059279446565714</v>
@@ -3404,7 +3195,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23">
-        <v>53.483333333333334</v>
+        <v>53.483333333333327</v>
       </c>
       <c r="B23">
         <v>24.585844361835846</v>
@@ -3421,7 +3212,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24">
-        <v>54.833333333333336</v>
+        <v>54.833333333333329</v>
       </c>
       <c r="B24">
         <v>26.095778051251774</v>
@@ -3489,7 +3280,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A28">
-        <v>57.93333333333333</v>
+        <v>57.933333333333337</v>
       </c>
       <c r="B28">
         <v>29.331336065146385</v>
@@ -3506,7 +3297,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A29">
-        <v>60.55</v>
+        <v>60.550000000000004</v>
       </c>
       <c r="B29">
         <v>32.046332013078249</v>
@@ -3574,7 +3365,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33">
-        <v>83.183333333333337</v>
+        <v>83.183333333333323</v>
       </c>
       <c r="B33">
         <v>63.351125689361545</v>
@@ -3591,7 +3382,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34">
-        <v>87.95</v>
+        <v>87.949999999999989</v>
       </c>
       <c r="B34">
         <v>70.454528683642835</v>
@@ -3646,6 +3437,30 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Notes xmlns="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e" xsi:nil="true"/>
+    <Responsible xmlns="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Responsible>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D39564F4B373C40A57A04A86EBFB752" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="0b2f77d21150b73964685bf582ca251c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e" xmlns:ns3="05807c0f-bfbe-42f9-9d4c-31827314b2d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="41d22c40800d9c720bccdb1b2cf2d3a2" ns2:_="" ns3:_="">
     <xsd:import namespace="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e"/>
@@ -3884,31 +3699,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C3779A9-C0F3-4510-95C1-E31C24A41E33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="05807c0f-bfbe-42f9-9d4c-31827314b2d4"/>
+    <ds:schemaRef ds:uri="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Notes xmlns="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e" xsi:nil="true"/>
-    <Responsible xmlns="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Responsible>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5392C8F-936E-44F3-A065-C03212AB37B3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6676023F-2B04-4B41-8EEB-4F10F6F0E62C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3925,29 +3741,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5392C8F-936E-44F3-A065-C03212AB37B3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C3779A9-C0F3-4510-95C1-E31C24A41E33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="05807c0f-bfbe-42f9-9d4c-31827314b2d4"/>
-    <ds:schemaRef ds:uri="de9ab2d0-220c-4844-9da7-4a4ce9c7dd2e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>